--- a/202202.xlsx
+++ b/202202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMA\班表\寄給F的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D6F53-8BBA-449B-9432-587158C1E7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F0A3F-166A-4C12-A2BC-C48AD43871D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10011" sheetId="27" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>亞瑪精品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -129,6 +129,10 @@
     <t>年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>疫苗假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1020,6 +1024,66 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,66 +1106,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,21 +1520,21 @@
       <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.68359375" defaultRowHeight="18" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.20703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="33" width="9.68359375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="5.68359375" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3.68359375" style="1" customWidth="1"/>
-    <col min="36" max="51" width="3.68359375" style="1"/>
-    <col min="56" max="16384" width="3.68359375" style="1"/>
+    <col min="3" max="33" width="9.6640625" style="21" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" style="1" customWidth="1"/>
+    <col min="36" max="51" width="3.6640625" style="1"/>
+    <col min="56" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1545,20 +1549,20 @@
       <c r="AG1" s="31"/>
       <c r="AH1" s="9"/>
     </row>
-    <row r="2" spans="1:55" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:55" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
       <c r="L2" s="60" t="s">
@@ -1586,7 +1590,7 @@
       <c r="AF2" s="59"/>
       <c r="AG2" s="59"/>
     </row>
-    <row r="3" spans="1:55" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="39"/>
@@ -1612,25 +1616,25 @@
       <c r="AG3" s="30"/>
       <c r="AH3" s="10"/>
     </row>
-    <row r="4" spans="1:55" s="46" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:55" s="46" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="108">
+      <c r="C4" s="100">
         <v>1</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="101">
         <v>2</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="101">
         <v>3</v>
       </c>
       <c r="F4" s="63">
         <v>4</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="89">
         <v>5</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="89">
         <v>6</v>
       </c>
       <c r="I4" s="63">
@@ -1648,10 +1652,10 @@
       <c r="M4" s="63">
         <v>11</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="89">
         <v>12</v>
       </c>
-      <c r="O4" s="97">
+      <c r="O4" s="89">
         <v>13</v>
       </c>
       <c r="P4" s="63">
@@ -1669,10 +1673,10 @@
       <c r="T4" s="63">
         <v>18</v>
       </c>
-      <c r="U4" s="97">
+      <c r="U4" s="89">
         <v>19</v>
       </c>
-      <c r="V4" s="97">
+      <c r="V4" s="89">
         <v>20</v>
       </c>
       <c r="W4" s="63">
@@ -1690,10 +1694,10 @@
       <c r="AA4" s="63">
         <v>25</v>
       </c>
-      <c r="AB4" s="97">
+      <c r="AB4" s="89">
         <v>26</v>
       </c>
-      <c r="AC4" s="97">
+      <c r="AC4" s="89">
         <v>27</v>
       </c>
       <c r="AD4" s="63">
@@ -1706,25 +1710,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="102" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="64" t="s">
@@ -1742,10 +1746,10 @@
       <c r="M5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="64" t="s">
@@ -1763,10 +1767,10 @@
       <c r="T5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="98" t="s">
+      <c r="U5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="98" t="s">
+      <c r="V5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W5" s="64" t="s">
@@ -1784,10 +1788,10 @@
       <c r="AA5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="98" t="s">
+      <c r="AB5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="98" t="s">
+      <c r="AC5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AD5" s="64" t="s">
@@ -1795,7 +1799,7 @@
       </c>
       <c r="AE5" s="77"/>
       <c r="AF5" s="77"/>
-      <c r="AG5" s="96"/>
+      <c r="AG5" s="88"/>
       <c r="AH5" s="70" t="s">
         <v>2</v>
       </c>
@@ -1804,19 +1808,19 @@
       <c r="BB5" s="50"/>
       <c r="BC5" s="50"/>
     </row>
-    <row r="6" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99" t="s">
+      <c r="G6" s="91"/>
+      <c r="H6" s="91" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="83" t="s">
@@ -1826,30 +1830,32 @@
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
-      <c r="N6" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="99"/>
+      <c r="N6" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="91"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
-      <c r="S6" s="66"/>
+      <c r="S6" s="66" t="s">
+        <v>21</v>
+      </c>
       <c r="T6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="99"/>
+      <c r="U6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="91"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66"/>
       <c r="Y6" s="66"/>
       <c r="Z6" s="65"/>
       <c r="AA6" s="66"/>
-      <c r="AB6" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="99" t="s">
+      <c r="AB6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="91" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="83" t="s">
@@ -1867,21 +1873,21 @@
       <c r="BB6" s="50"/>
       <c r="BC6" s="50"/>
     </row>
-    <row r="7" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="89"/>
+    <row r="7" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="109"/>
       <c r="B7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="100"/>
+      <c r="G7" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="92"/>
       <c r="I7" s="84"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71" t="s">
@@ -1889,8 +1895,8 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="100" t="s">
+      <c r="N7" s="99"/>
+      <c r="O7" s="92" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="84" t="s">
@@ -1904,8 +1910,8 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100" t="s">
+      <c r="U7" s="92"/>
+      <c r="V7" s="92" t="s">
         <v>10</v>
       </c>
       <c r="W7" s="72"/>
@@ -1915,8 +1921,8 @@
       <c r="AA7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
       <c r="AD7" s="84"/>
       <c r="AE7" s="71"/>
       <c r="AF7" s="71"/>
@@ -1930,23 +1936,23 @@
       <c r="BB7" s="50"/>
       <c r="BC7" s="50"/>
     </row>
-    <row r="8" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="83" t="s">
@@ -1958,25 +1964,25 @@
         <v>10</v>
       </c>
       <c r="M8" s="67"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="67" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
       <c r="S8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="101" t="s">
+      <c r="U8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="101"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67" t="s">
         <v>13</v>
@@ -1986,10 +1992,10 @@
       </c>
       <c r="Z8" s="67"/>
       <c r="AA8" s="67"/>
-      <c r="AB8" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="101"/>
+      <c r="AB8" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="93"/>
       <c r="AD8" s="67" t="s">
         <v>13</v>
       </c>
@@ -2005,19 +2011,19 @@
       <c r="BB8" s="50"/>
       <c r="BC8" s="50"/>
     </row>
-    <row r="9" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
       <c r="B9" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="C9" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104" t="s">
+      <c r="G9" s="95"/>
+      <c r="H9" s="96" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="85"/>
@@ -2031,10 +2037,10 @@
       <c r="M9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="103" t="s">
+      <c r="N9" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="95" t="s">
         <v>13</v>
       </c>
       <c r="P9" s="74"/>
@@ -2048,8 +2054,8 @@
         <v>13</v>
       </c>
       <c r="T9" s="74"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103" t="s">
+      <c r="U9" s="95"/>
+      <c r="V9" s="95" t="s">
         <v>13</v>
       </c>
       <c r="W9" s="74" t="s">
@@ -2063,8 +2069,8 @@
       <c r="AA9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="74"/>
@@ -2080,21 +2086,21 @@
       <c r="BB9" s="50"/>
       <c r="BC9" s="50"/>
     </row>
-    <row r="10" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="90"/>
+    <row r="10" spans="1:55" s="49" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="110"/>
       <c r="B10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="105"/>
+      <c r="G10" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="97"/>
       <c r="I10" s="68" t="s">
         <v>13</v>
       </c>
@@ -2106,8 +2112,8 @@
       <c r="M10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
       <c r="P10" s="68" t="s">
         <v>10</v>
       </c>
@@ -2117,10 +2123,10 @@
       <c r="T10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="105" t="s">
+      <c r="U10" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="97" t="s">
         <v>10</v>
       </c>
       <c r="W10" s="68"/>
@@ -2136,8 +2142,8 @@
       <c r="AA10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
       <c r="AD10" s="68" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2159,7 @@
       <c r="BB10" s="50"/>
       <c r="BC10" s="50"/>
     </row>
-    <row r="11" spans="1:55" s="3" customFormat="1" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:55" s="3" customFormat="1" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
       <c r="C11" s="23"/>
@@ -2189,7 +2195,7 @@
       <c r="AG11" s="23"/>
       <c r="AH11" s="18"/>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:55" s="3" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="23"/>
@@ -2225,7 +2231,7 @@
       <c r="AG12" s="23"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
       <c r="C13" s="24"/>
@@ -2261,7 +2267,7 @@
       <c r="AG13" s="24"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
@@ -2297,7 +2303,7 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="17"/>
     </row>
-    <row r="15" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="21"/>
@@ -2333,7 +2339,7 @@
       <c r="AG15" s="26"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="25"/>
@@ -2369,15 +2375,15 @@
       <c r="AG16" s="26"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="2:34" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:34" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="19" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="D20" s="23"/>
       <c r="F20" s="23"/>
@@ -2386,7 +2392,7 @@
       <c r="J20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="D21" s="25"/>
       <c r="F21" s="26"/>
@@ -2395,8 +2401,8 @@
       <c r="J21" s="25"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="24" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="24" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A8:A10"/>

--- a/202202.xlsx
+++ b/202202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F0A3F-166A-4C12-A2BC-C48AD43871D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39CA0FB-5B32-4018-ADA9-2431E2E7E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,7 +1520,7 @@
       <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1982,11 +1982,11 @@
       <c r="U8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="93"/>
+      <c r="V8" s="93" t="s">
+        <v>13</v>
+      </c>
       <c r="W8" s="67"/>
-      <c r="X8" s="67" t="s">
-        <v>13</v>
-      </c>
+      <c r="X8" s="67"/>
       <c r="Y8" s="67" t="s">
         <v>10</v>
       </c>
@@ -2040,9 +2040,7 @@
       <c r="N9" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="95" t="s">
-        <v>13</v>
-      </c>
+      <c r="O9" s="95"/>
       <c r="P9" s="74"/>
       <c r="Q9" s="74" t="s">
         <v>10</v>
@@ -2053,15 +2051,17 @@
       <c r="S9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="74"/>
+      <c r="T9" s="74" t="s">
+        <v>13</v>
+      </c>
       <c r="U9" s="95"/>
-      <c r="V9" s="95" t="s">
+      <c r="V9" s="95"/>
+      <c r="W9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="74"/>
       <c r="Y9" s="74"/>
       <c r="Z9" s="74" t="s">
         <v>10</v>
@@ -2113,16 +2113,16 @@
         <v>10</v>
       </c>
       <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
+      <c r="O10" s="97" t="s">
+        <v>13</v>
+      </c>
       <c r="P10" s="68" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="68"/>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
-      <c r="T10" s="68" t="s">
-        <v>13</v>
-      </c>
+      <c r="T10" s="68"/>
       <c r="U10" s="97" t="s">
         <v>10</v>
       </c>

--- a/202202.xlsx
+++ b/202202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39CA0FB-5B32-4018-ADA9-2431E2E7E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8939C42-B56B-4F39-8FEF-66F2F2D2771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,7 +1520,7 @@
       <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2119,9 @@
       <c r="P10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="68"/>
+      <c r="Q10" s="68" t="s">
+        <v>13</v>
+      </c>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
       <c r="T10" s="68"/>
@@ -2133,9 +2135,7 @@
       <c r="X10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="68" t="s">
-        <v>13</v>
-      </c>
+      <c r="Y10" s="68"/>
       <c r="Z10" s="68" t="s">
         <v>13</v>
       </c>

--- a/202202.xlsx
+++ b/202202.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8939C42-B56B-4F39-8FEF-66F2F2D2771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D698F76-F135-4495-AF48-771ED0BA8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10011" sheetId="27" r:id="rId1"/>
@@ -1517,10 +1517,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="34" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1968,7 +1965,9 @@
       <c r="O8" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="67"/>
+      <c r="P8" s="67" t="s">
+        <v>13</v>
+      </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67" t="s">
         <v>13</v>
@@ -1979,9 +1978,7 @@
       <c r="T8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="93" t="s">
-        <v>13</v>
-      </c>
+      <c r="U8" s="93"/>
       <c r="V8" s="93" t="s">
         <v>13</v>
       </c>
